--- a/biology/Botanique/Hookeria/Hookeria.xlsx
+++ b/biology/Botanique/Hookeria/Hookeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hookeria est un genre de mousse de la famille des Hookeriaceae. C'est le genre type de la famille. D'après GBIF le taxon comporte 17 espèces, certains auteurs en compte seulement une dizaine[1],[2],[3]. C'est le genre type de la famille. Il est présent sur tous les continents[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hookeria est un genre de mousse de la famille des Hookeriaceae. C'est le genre type de la famille. D'après GBIF le taxon comporte 17 espèces, certains auteurs en compte seulement une dizaine. C'est le genre type de la famille. Il est présent sur tous les continents.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est caractérisé par la taille importante des cellules (60 micron à 100 micron)[4], donnant un aspect grillagé à la feuille. Les plante sont de taille moyenne, vert jaunâtre. Les feuilles de grandes tailles, aplanies[2]. La forme des feuilles varie d'ovale à ovale-lancéolée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est caractérisé par la taille importante des cellules (60 micron à 100 micron), donnant un aspect grillagé à la feuille. Les plante sont de taille moyenne, vert jaunâtre. Les feuilles de grandes tailles, aplanies. La forme des feuilles varie d'ovale à ovale-lancéolée.
 			Hookeria acutifolia. On remarque que les cellules sont visibles à l’œil nu, fait rare chez les bryophytes. Les feuilles sont aplanies, donnant un aspect écrasé au rameau.
 			Cellules d'Hookeria lucens au microscope. On observe les cellules de grande taille, avec leur forme caractéristique du genre.
 			Feuilles d'Hookeria lucens, on observe les motifs grillagés dessinés par les cellules.
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces d'après GBIF[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces d'après GBIF :
 Hookeria acutifolia Hook. &amp; Grev.
 Hookeria commutata Paris
 Hookeria contracta A.Gepp
@@ -565,7 +581,7 @@
 Hookeria squarrosula Paris
 Hookeria uliginosa Müll.Hal.
 Hookeria viridula Mitt.
-Une seule espèce est présente en France métropolitaine, Hookeria lucens. Une seconde espèce est présente à la Réunion, Hookeria splachnifolia[5] Une troisième espèce est citée en France, Hookeria squarrosula, mais la validité de cette espèce est douteuse[6]
+Une seule espèce est présente en France métropolitaine, Hookeria lucens. Une seconde espèce est présente à la Réunion, Hookeria splachnifolia Une troisième espèce est citée en France, Hookeria squarrosula, mais la validité de cette espèce est douteuse
 </t>
         </is>
       </c>
